--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>437224.3466485289</v>
+        <v>438224.5760825101</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1207873.763444804</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18603869.05421057</v>
+        <v>18548951.26311751</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5527889.913486584</v>
+        <v>5537643.65058984</v>
       </c>
     </row>
     <row r="11">
@@ -674,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>182.8542111456044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>47.13383555196372</v>
       </c>
       <c r="S2" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>147.2847385201583</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -786,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>47.13383555196372</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
     </row>
     <row r="4">
@@ -829,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>26.16190956546853</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>170.9049217909918</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>207.6001488937379</v>
+        <v>102.3382270926889</v>
       </c>
     </row>
     <row r="6">
@@ -978,25 +980,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>126.358590200387</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1032,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>20.06564430243083</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1066,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>182.8542111456044</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>83.81476128364193</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1272,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>111.3677607302583</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1427,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>207.6001488937379</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y11" t="n">
-        <v>182.8542111456044</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="12">
@@ -1446,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>113.2852138466917</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1467,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1503,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1604,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
-        <v>172.8635119310595</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1649,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1731,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>18.23848061217037</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1743,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>44.08176337665907</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1777,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1786,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.82778746869523</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1853,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>160.914222576447</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>207.6001488937379</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1889,13 +1891,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1932,19 +1934,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>17.61720206839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>161.5977731431653</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1986,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2081,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>241.0142888776591</v>
@@ -2132,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2163,22 +2165,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>63.50968227731285</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>48.48515950437162</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2220,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2293,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2333,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2397,16 +2399,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>82.69355372315668</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2448,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2463,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>185.826685346498</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2497,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2555,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>241.0142888776591</v>
@@ -2606,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2646,7 +2648,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>107.0564356555957</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2655,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2691,16 +2693,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>106.8110878221261</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2713,52 +2715,52 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2789,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.2853856434421</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2834,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2849,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2886,13 +2888,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2931,10 +2933,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>177.1712818143419</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>3.573781263631001</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -3007,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3035,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.809496073036188</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3089,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>142.4223624459043</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -3117,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1.197928092376224</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3168,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3211,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3269,22 +3271,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>92.95466700954542</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3357,16 +3359,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>28.14326276152196</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -3399,13 +3401,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3424,64 +3426,64 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3515,16 +3517,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>33.80371536444976</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3591,16 +3593,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>42.10822283109475</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>20.64425157461128</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3715,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3746,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3782,13 +3784,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -3797,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W41" t="n">
-        <v>11.19305615617957</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3864,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>149.3895849832727</v>
+        <v>11.01727716149734</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3882,7 +3884,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3977,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>11.0451046352973</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>207.6001488937379</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>58.39471844666277</v>
       </c>
     </row>
     <row r="45">
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>184.6813748358647</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>207.6001488937379</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="46">
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>411.0063553855821</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C2" t="n">
-        <v>411.0063553855821</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D2" t="n">
-        <v>411.0063553855821</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E2" t="n">
-        <v>411.0063553855821</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F2" t="n">
-        <v>411.0063553855821</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G2" t="n">
-        <v>411.0063553855821</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H2" t="n">
-        <v>201.3092352908974</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>119.6230178224214</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
-        <v>180.4972953306516</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M2" t="n">
-        <v>386.0214427354521</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N2" t="n">
-        <v>591.5455901402526</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="O2" t="n">
-        <v>740.7405402829006</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
-        <v>830.4005955749516</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>830.4005955749516</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>830.4005955749516</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="S2" t="n">
-        <v>620.7034754802669</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="T2" t="n">
-        <v>620.7034754802669</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="U2" t="n">
-        <v>620.7034754802669</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="V2" t="n">
-        <v>620.7034754802669</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="W2" t="n">
-        <v>411.0063553855821</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="X2" t="n">
-        <v>411.0063553855821</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="Y2" t="n">
-        <v>411.0063553855821</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>488.7679140055524</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="C3" t="n">
-        <v>314.3148847244254</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D3" t="n">
-        <v>165.3804750631741</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="M3" t="n">
-        <v>222.1321593162995</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="N3" t="n">
-        <v>427.6563067211001</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="O3" t="n">
-        <v>633.1804541259006</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="P3" t="n">
-        <v>761.0060370616222</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
-        <v>830.4005955749516</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>830.4005955749516</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>656.9832510256205</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="T3" t="n">
-        <v>656.9832510256205</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="U3" t="n">
-        <v>656.9832510256205</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="V3" t="n">
-        <v>656.9832510256205</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="W3" t="n">
-        <v>656.9832510256205</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="X3" t="n">
-        <v>656.9832510256205</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="Y3" t="n">
-        <v>656.9832510256205</v>
+        <v>112.3871215328157</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="C4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="D4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="E4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="F4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="G4" t="n">
-        <v>16.60801191149903</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="H4" t="n">
-        <v>16.60801191149903</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="I4" t="n">
-        <v>16.60801191149903</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="J4" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>43.92213691921201</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>83.11017511143419</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>126.8010257668705</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="U4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="V4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="W4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="X4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>238.3751212532671</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>28.67800115858238</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>28.67800115858238</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>28.67800115858238</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>28.67800115858238</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>28.67800115858238</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>28.67800115858238</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>28.67800115858238</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>16.60801191149903</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>196.6838634961576</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>402.2080109009581</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>607.7321583057586</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>756.9271084484067</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>830.4005955749516</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>830.4005955749516</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>830.4005955749516</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>830.4005955749516</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>830.4005955749516</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V5" t="n">
-        <v>830.4005955749516</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W5" t="n">
-        <v>830.4005955749516</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X5" t="n">
-        <v>657.7693614426366</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y5" t="n">
-        <v>448.0722413479519</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.60801191149903</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C6" t="n">
-        <v>16.60801191149903</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="D6" t="n">
-        <v>16.60801191149903</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>16.60801191149903</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>16.60801191149903</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>16.60801191149903</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>16.60801191149903</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>16.60801191149903</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>16.60801191149903</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L6" t="n">
-        <v>222.1321593162995</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
-        <v>427.6563067211001</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>578.3625594482714</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>578.3625594482714</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>761.0060370616222</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>810.1322679967386</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>600.4351479020538</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>392.583647696521</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>184.8233489315671</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>16.60801191149903</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J7" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>43.92213691921201</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>83.11017511143419</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>126.8010257668705</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>620.7034754802669</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>411.0063553855821</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>201.3092352908974</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>201.3092352908974</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>201.3092352908974</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>201.3092352908974</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>119.6230178224214</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>180.4972953306516</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>386.0214427354521</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>591.5455901402526</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>740.7405402829006</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>830.4005955749516</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X8" t="n">
-        <v>830.4005955749516</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y8" t="n">
-        <v>830.4005955749516</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>339.9954508538773</v>
+        <v>548.4453565401495</v>
       </c>
       <c r="C9" t="n">
-        <v>165.5424215727503</v>
+        <v>548.4453565401495</v>
       </c>
       <c r="D9" t="n">
-        <v>16.60801191149903</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E9" t="n">
-        <v>16.60801191149903</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F9" t="n">
-        <v>16.60801191149903</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G9" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>141.9655719693364</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>213.8281533605501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>419.3523007653506</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>624.8764481701511</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O9" t="n">
-        <v>830.4005955749516</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>830.4005955749516</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>620.7034754802669</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>620.7034754802669</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y9" t="n">
-        <v>508.2107878739453</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>39.10244809925949</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>39.10244809925949</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>43.92213691921201</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>83.11017511143419</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>126.8010257668705</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>148.3913723663086</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.35900544540522</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>39.10244809925949</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.60801191149903</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>119.6230178224214</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>299.69886940708</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>505.2230168118805</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>591.5455901402526</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>740.7405402829006</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>620.7034754802669</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>411.0063553855821</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>201.3092352908974</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.60801191149903</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>454.4249597899296</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C12" t="n">
-        <v>279.9719305088025</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D12" t="n">
-        <v>131.0375208475513</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E12" t="n">
-        <v>16.60801191149903</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F12" t="n">
-        <v>16.60801191149903</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G12" t="n">
-        <v>16.60801191149903</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H12" t="n">
-        <v>16.60801191149903</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="I12" t="n">
-        <v>16.60801191149903</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>141.9655719693364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>141.9655719693364</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M12" t="n">
-        <v>347.4897193741369</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
-        <v>372.838412043471</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O12" t="n">
-        <v>578.3625594482714</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>761.0060370616222</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>830.4005955749516</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>830.4005955749516</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W12" t="n">
-        <v>830.4005955749516</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X12" t="n">
-        <v>830.4005955749516</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y12" t="n">
-        <v>622.6402968099976</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.4046502373128</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>133.4046502373128</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>133.4046502373128</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>133.4046502373128</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4046502373128</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>133.4046502373128</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>133.4046502373128</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>133.4046502373128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>39.10244809925949</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>43.92213691921201</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>83.11017511143419</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>126.8010257668705</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>148.3913723663086</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.4046502373128</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>133.4046502373128</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>133.4046502373128</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>133.4046502373128</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>133.4046502373128</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>133.4046502373128</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>133.4046502373128</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>133.4046502373128</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>133.4046502373128</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>400.914740017355</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C14" t="n">
-        <v>226.3051320061838</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D14" t="n">
-        <v>226.3051320061838</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>226.3051320061838</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>119.6230178224214</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>180.4972953306516</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>386.0214427354521</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>591.5455901402526</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>740.7405402829006</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>820.3089802067245</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>820.3089802067245</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>610.6118601120397</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>610.6118601120397</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>610.6118601120397</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>610.6118601120397</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W14" t="n">
-        <v>610.6118601120397</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X14" t="n">
-        <v>610.6118601120397</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y14" t="n">
-        <v>610.6118601120397</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.60801191149903</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C15" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>141.9655719693364</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L15" t="n">
-        <v>347.4897193741369</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M15" t="n">
-        <v>419.3523007653506</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
-        <v>624.8764481701511</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>830.4005955749516</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>811.9778878858906</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>811.9778878858906</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>811.9778878858906</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U15" t="n">
-        <v>811.9778878858906</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V15" t="n">
-        <v>602.2807677912058</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W15" t="n">
-        <v>392.583647696521</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X15" t="n">
-        <v>392.583647696521</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y15" t="n">
-        <v>184.8233489315671</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>110.9102140495524</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>110.9102140495524</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>110.9102140495524</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>110.9102140495524</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>110.9102140495524</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>110.9102140495524</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>110.9102140495524</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>110.9102140495524</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>43.92213691921201</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>83.11017511143419</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>126.8010257668705</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>110.9102140495524</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9102140495524</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>110.9102140495524</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>110.9102140495524</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>110.9102140495524</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>110.9102140495524</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>110.9102140495524</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>110.9102140495524</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>110.9102140495524</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>820.3089802067245</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C17" t="n">
-        <v>820.3089802067245</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D17" t="n">
-        <v>820.3089802067245</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E17" t="n">
-        <v>820.3089802067245</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F17" t="n">
-        <v>657.7693614426366</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G17" t="n">
-        <v>448.0722413479519</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H17" t="n">
-        <v>238.3751212532671</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I17" t="n">
-        <v>28.67800115858238</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>119.6230178224214</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>299.69886940708</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>505.2230168118805</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>710.747164216681</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>830.4005955749516</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>820.3089802067245</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>820.3089802067245</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>820.3089802067245</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>820.3089802067245</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>820.3089802067245</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V17" t="n">
-        <v>820.3089802067245</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W17" t="n">
-        <v>820.3089802067245</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X17" t="n">
-        <v>820.3089802067245</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y17" t="n">
-        <v>820.3089802067245</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16.60801191149903</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C18" t="n">
-        <v>16.60801191149903</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="D18" t="n">
-        <v>16.60801191149903</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="E18" t="n">
-        <v>16.60801191149903</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="F18" t="n">
-        <v>16.60801191149903</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>16.60801191149903</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>16.60801191149903</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>16.60801191149903</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>222.1321593162995</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M18" t="n">
-        <v>222.1321593162995</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N18" t="n">
-        <v>372.838412043471</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O18" t="n">
-        <v>578.3625594482714</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>761.0060370616222</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>729.2310661278373</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>555.8137215785061</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>392.583647696521</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>392.583647696521</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>392.583647696521</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>392.583647696521</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>392.583647696521</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y18" t="n">
-        <v>184.8233489315671</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>43.92213691921201</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>83.11017511143419</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>126.8010257668705</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>262.7299197543128</v>
@@ -5780,22 +5782,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>795.8418184905681</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C21" t="n">
-        <v>621.3887892094411</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>472.4543795481899</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>313.2169245427344</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>313.2169245427344</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>174.4860991253499</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5838,43 +5840,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N21" t="n">
         <v>613.2059550252818</v>
       </c>
-      <c r="N21" t="n">
-        <v>851.8101010141643</v>
-      </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>813.9127174732475</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>813.9127174732475</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>813.9127174732475</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>813.9127174732475</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="X21" t="n">
-        <v>964.0571555106362</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="Y21" t="n">
-        <v>964.0571555106362</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="22">
@@ -5941,13 +5943,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6016,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X23" t="n">
-        <v>477.1596022224361</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y23" t="n">
-        <v>233.7108255783361</v>
+        <v>22.57944215788615</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>325.0531560887832</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="C24" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6075,10 +6077,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6096,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X24" t="n">
-        <v>512.7568786610034</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="Y24" t="n">
-        <v>325.0531560887832</v>
+        <v>102.8099852548154</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J25" t="n">
         <v>19.28114311021272</v>
@@ -6172,25 +6174,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C26" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G26" t="n">
         <v>262.7299197543128</v>
@@ -6254,22 +6256,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>612.718391167419</v>
+        <v>582.8795121963512</v>
       </c>
       <c r="C27" t="n">
-        <v>612.718391167419</v>
+        <v>582.8795121963512</v>
       </c>
       <c r="D27" t="n">
-        <v>463.7839815061678</v>
+        <v>433.9451025351</v>
       </c>
       <c r="E27" t="n">
-        <v>304.5465265007123</v>
+        <v>274.7076475296445</v>
       </c>
       <c r="F27" t="n">
-        <v>158.0119685275972</v>
+        <v>128.1730895565294</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,16 +6314,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V27" t="n">
-        <v>856.167167811519</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W27" t="n">
-        <v>612.718391167419</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X27" t="n">
-        <v>612.718391167419</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y27" t="n">
-        <v>612.718391167419</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="28">
@@ -6358,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
         <v>19.28114311021272</v>
@@ -6406,28 +6408,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y29" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>369.484465818592</v>
+        <v>341.0228630172405</v>
       </c>
       <c r="C30" t="n">
-        <v>369.484465818592</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D30" t="n">
-        <v>369.484465818592</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E30" t="n">
-        <v>369.484465818592</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F30" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
         <v>234.810827406191</v>
@@ -6579,13 +6581,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>785.0962647890788</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X30" t="n">
-        <v>577.2447645835459</v>
+        <v>716.9984988022625</v>
       </c>
       <c r="Y30" t="n">
-        <v>369.484465818592</v>
+        <v>509.2382000373086</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6737,13 +6739,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>343.4227147053767</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C33" t="n">
-        <v>168.9696854242497</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>21.24530413913604</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>21.24530413913604</v>
       </c>
       <c r="F33" t="n">
         <v>20.03527576299844</v>
@@ -6780,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>781.4136778972854</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>487.2836868729568</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X33" t="n">
-        <v>487.2836868729568</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y33" t="n">
-        <v>487.2836868729568</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="34">
@@ -6832,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
         <v>19.28114311021272</v>
@@ -6889,19 +6891,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>252.1315786412141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>252.1315786412141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>252.1315786412141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>252.1315786412141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>252.1315786412141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>487.2836868729568</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V36" t="n">
-        <v>252.1315786412141</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W36" t="n">
-        <v>252.1315786412141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X36" t="n">
-        <v>252.1315786412141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>252.1315786412141</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7069,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
         <v>19.28114311021272</v>
@@ -7129,16 +7131,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>718.7806050553886</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C38" t="n">
-        <v>718.7806050553886</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D38" t="n">
-        <v>718.7806050553886</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E38" t="n">
-        <v>718.7806050553886</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F38" t="n">
-        <v>718.7806050553886</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G38" t="n">
-        <v>475.3318284112885</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7201,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>718.7806050553886</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>313.4946457291688</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="C39" t="n">
-        <v>313.4946457291688</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="D39" t="n">
-        <v>313.4946457291688</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="E39" t="n">
-        <v>154.2571907237133</v>
+        <v>322.4725277437814</v>
       </c>
       <c r="F39" t="n">
-        <v>154.2571907237133</v>
+        <v>175.9379697706663</v>
       </c>
       <c r="G39" t="n">
-        <v>154.2571907237133</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H39" t="n">
-        <v>40.88805513129266</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7254,22 +7256,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7363,7 +7365,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
         <v>19.28114311021272</v>
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E41" t="n">
         <v>262.7299197543128</v>
@@ -7430,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>517.4848137278872</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U41" t="n">
-        <v>517.4848137278872</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V41" t="n">
-        <v>274.0360370837871</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W41" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X41" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="42">
@@ -7464,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
         <v>19.28114311021272</v>
@@ -7491,19 +7493,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7512,28 +7514,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T42" t="n">
-        <v>813.1585848204618</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="U42" t="n">
-        <v>813.1585848204618</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V42" t="n">
-        <v>813.1585848204618</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W42" t="n">
-        <v>569.7098081763618</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X42" t="n">
-        <v>569.7098081763618</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y42" t="n">
-        <v>361.9495094114078</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>448.0722413479519</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C44" t="n">
-        <v>448.0722413479519</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D44" t="n">
-        <v>448.0722413479519</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E44" t="n">
-        <v>448.0722413479519</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F44" t="n">
-        <v>238.3751212532671</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
-        <v>28.67800115858238</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>28.67800115858238</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>28.67800115858238</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>119.6230178224214</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>299.69886940708</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>505.2230168118805</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>591.5455901402526</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>740.7405402829006</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>820.3089802067245</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>668.9260327914218</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>657.7693614426366</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>448.0722413479519</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U44" t="n">
-        <v>448.0722413479519</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V44" t="n">
-        <v>448.0722413479519</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W44" t="n">
-        <v>448.0722413479519</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X44" t="n">
-        <v>448.0722413479519</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y44" t="n">
-        <v>448.0722413479519</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>141.9655719693364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>347.4897193741369</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>553.0138667789374</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>647.7571179616007</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O45" t="n">
-        <v>647.7571179616007</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>643.8537523064014</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>434.1566322117166</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>224.4595121170319</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>16.60801191149903</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>43.92213691921201</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>83.11017511143419</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>126.8010257668705</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>297.2555841702197</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>437.9463821210106</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>437.0132124903288</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>281.4486180473961</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8064,19 +8066,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>349.7341828157562</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>338.9418609770712</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
-        <v>350.1963933381824</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>263.0911578544531</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>437.9463821210106</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.0132124903288</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>305.4486393174361</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L6" t="n">
-        <v>346.154528673612</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>349.7341828157562</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>283.5702501915872</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,13 +8458,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>297.2555841702197</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>437.9463821210106</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.0132124903288</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8535,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>211.1428458316051</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>349.7341828157562</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>338.9418609770712</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O9" t="n">
-        <v>350.1963933381824</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,10 +8698,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>437.9463821210106</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>316.6075821100981</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8769,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M12" t="n">
-        <v>349.7341828157562</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>156.9464521533677</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>350.1963933381824</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8930,13 +8932,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>297.2555841702197</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M14" t="n">
-        <v>437.9463821210106</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.0132124903288</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9006,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L15" t="n">
-        <v>346.154528673612</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>214.7224999737493</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>338.9418609770712</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>350.1963933381824</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9170,16 +9172,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>437.9463821210106</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.0132124903288</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>350.9602632987277</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,19 +9248,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>346.154528673612</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>283.5702501915873</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>350.1963933381824</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9486,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>185.8815939223662</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,13 +9725,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>301.2485028631349</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9960,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>359.8407857361378</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10428,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10677,13 +10679,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>231.1529892133073</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,13 +11150,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>301.2485028631349</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11303,10 +11305,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>437.9463821210106</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>316.6075821100981</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11376,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>346.154528673612</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>349.7341828157562</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>227.0419658031952</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22562,10 +22564,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>131.8746532220293</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>27.62167842480156</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22592,13 +22594,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>102.735282389186</v>
       </c>
       <c r="S2" t="n">
-        <v>1.419920692507446</v>
+        <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>169.5833205541816</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22607,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>141.6408198236751</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>332.7254096461039</v>
       </c>
     </row>
     <row r="3">
@@ -22623,16 +22625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>113.0206546399176</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>119.195969978366</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>10.36034193524262</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22674,7 +22676,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>124.5493355518741</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22692,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>152.1701667673546</v>
       </c>
     </row>
     <row r="4">
@@ -22717,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>108.7146434974898</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>101.9379459173085</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>67.19727055120424</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>175.1336927697427</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>157.6727428772697</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22805,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22847,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>198.8261788874773</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>178.6377897623157</v>
+        <v>283.8997115633647</v>
       </c>
     </row>
     <row r="6">
@@ -22866,25 +22868,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>21.08647536425178</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22920,16 +22922,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>212.7349428469944</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>44.09483426718171</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22954,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175.1336927697427</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>157.6727428772697</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>147.0828927269451</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23036,7 +23038,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>156.6205909701628</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23081,10 +23083,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23097,22 +23099,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>63.63030428099682</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23160,13 +23162,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>44.09483426718171</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>94.31493504704602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23197,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23315,16 +23317,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>120.152109576397</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>141.6408198236751</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>162.1309517847311</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y11" t="n">
-        <v>203.3837275104492</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23334,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>44.35986660870924</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23355,10 +23357,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>60.3442152127903</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23391,19 +23393,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,10 +23457,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.32518834398851</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23492,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>175.1336927697427</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
-        <v>192.4093798399481</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>199.2758968479735</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23537,13 +23539,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>1.419920692507446</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23552,7 +23554,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23571,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23619,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>81.91935354047276</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -23631,13 +23633,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>25.20043825568737</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>44.09483426718171</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6912218268184</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23665,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H16" t="n">
         <v>162.2271725074396</v>
@@ -23674,7 +23676,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -23695,7 +23697,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.33425578299916</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23741,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>245.9618231652644</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>207.7025886213972</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>131.8746532220293</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>2.875740676668016</v>
+        <v>120.0869518323295</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23798,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23820,19 +23822,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>127.4520103249939</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>38.56695555165629</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23874,7 +23876,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23969,19 +23971,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>169.6449844288198</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>98.46051323810809</v>
@@ -24020,13 +24022,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24051,22 +24053,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>48.72576195918361</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>123.1980115994662</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24108,13 +24110,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24181,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>379.4685256062839</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24221,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24254,7 +24256,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24285,16 +24287,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>90.01494526515906</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24336,7 +24338,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24351,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.85601043080641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>140.004192713242</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24385,7 +24387,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>22.26949182588285</v>
@@ -24412,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24443,19 +24445,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>98.46051323810809</v>
@@ -24494,13 +24496,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24534,7 +24536,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>30.28708150761494</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24543,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,7 +24572,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24579,16 +24581,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>125.9894993272992</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24601,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24646,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4484560200385</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24737,16 +24739,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24774,13 +24776,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24819,10 +24821,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>74.52370134657772</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>202.1992039398465</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24895,13 +24897,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24923,19 +24925,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>413.4932414420988</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24977,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24.11082120396307</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25005,7 +25007,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>143.8712843010076</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25041,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25056,13 +25058,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.07350359897357</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25099,7 +25101,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25157,22 +25159,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>313.921378732166</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25199,13 +25201,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25217,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25245,16 +25247,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>109.2002544016887</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25287,13 +25289,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25369,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25403,16 +25405,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25439,10 +25441,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>189.2921341996816</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25479,16 +25481,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>95.23529433211588</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>68.7523812768038</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25603,10 +25605,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25634,7 +25636,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>151.7265451152921</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25670,13 +25672,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25685,10 +25687,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>338.0479125612334</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25752,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>50.77514371154891</v>
+        <v>189.1474515333243</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25770,7 +25772,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25865,19 +25867,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>199.2758968479735</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>207.7025886213972</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25913,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>197.974964950948</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>15.49570067039346</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>327.8432202093908</v>
       </c>
     </row>
     <row r="45">
@@ -25998,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>41.2600072451101</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>25.20043825568737</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>44.09483426718171</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="46">
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>466890.7352486634</v>
+        <v>359246.6205466193</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>466890.7352486634</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>466890.7352486636</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>466890.7352486634</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>466890.7352486635</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>466890.7352486635</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490233.5289125025</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>466890.7352486635</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94950.34996194403</v>
+        <v>73064.16355197683</v>
       </c>
       <c r="C2" t="n">
-        <v>94950.349961944</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="D2" t="n">
-        <v>94950.34996194401</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="E2" t="n">
-        <v>94950.34996194403</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="F2" t="n">
-        <v>94950.34996194403</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="G2" t="n">
-        <v>94950.349961944</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="H2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="I2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="J2" t="n">
         <v>99696.40351879936</v>
-      </c>
-      <c r="J2" t="n">
-        <v>99696.40351879937</v>
       </c>
       <c r="K2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="L2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="M2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="M2" t="n">
-        <v>99696.4035187994</v>
-      </c>
       <c r="N2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="O2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="P2" t="n">
         <v>99696.40351879939</v>
-      </c>
-      <c r="O2" t="n">
-        <v>99696.40351879936</v>
-      </c>
-      <c r="P2" t="n">
-        <v>94950.34996194401</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69571.58469771611</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26381,16 +26383,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>9015.435694921785</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>54317.33335715316</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8119.364175295304</v>
+        <v>6146.830964860551</v>
       </c>
       <c r="C4" t="n">
-        <v>8119.364175295304</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
-        <v>8119.364175295304</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
-        <v>8119.364175295303</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="F4" t="n">
-        <v>8119.364175295304</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="G4" t="n">
-        <v>8119.364175295304</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
         <v>8547.111069342402</v>
@@ -26445,7 +26447,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="L4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="M4" t="n">
         <v>8547.111069342402</v>
@@ -26454,10 +26456,10 @@
         <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
-        <v>8119.364175295303</v>
+        <v>8547.111069342402</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46249.68905273926</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>46249.68905273926</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>46249.68905273926</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>12622.08905273926</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>12622.08905273926</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
-        <v>12622.08905273926</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26509,7 +26511,7 @@
         <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>12622.08905273926</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28990.28796380665</v>
+        <v>12102.89156390995</v>
       </c>
       <c r="C6" t="n">
-        <v>40581.29673390944</v>
+        <v>-17708.29850097283</v>
       </c>
       <c r="D6" t="n">
-        <v>40581.29673390945</v>
+        <v>42868.02368569532</v>
       </c>
       <c r="E6" t="n">
-        <v>74208.89673390947</v>
+        <v>76495.62368569532</v>
       </c>
       <c r="F6" t="n">
-        <v>74208.89673390947</v>
+        <v>76495.62368569533</v>
       </c>
       <c r="G6" t="n">
-        <v>74208.89673390944</v>
+        <v>76495.62368569533</v>
       </c>
       <c r="H6" t="n">
-        <v>67480.18799077351</v>
+        <v>76495.6236856953</v>
       </c>
       <c r="I6" t="n">
+        <v>76495.6236856953</v>
+      </c>
+      <c r="J6" t="n">
+        <v>62494.391545416</v>
+      </c>
+      <c r="K6" t="n">
+        <v>28238.6707520627</v>
+      </c>
+      <c r="L6" t="n">
+        <v>76495.62368569532</v>
+      </c>
+      <c r="M6" t="n">
         <v>76495.62368569529</v>
       </c>
-      <c r="J6" t="n">
-        <v>22178.29032854213</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
+        <v>76495.62368569529</v>
+      </c>
+      <c r="O6" t="n">
         <v>76495.6236856953</v>
       </c>
-      <c r="L6" t="n">
-        <v>76495.62368569529</v>
-      </c>
-      <c r="M6" t="n">
-        <v>76495.62368569533</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>76495.62368569532</v>
-      </c>
-      <c r="O6" t="n">
-        <v>76495.62368569529</v>
-      </c>
-      <c r="P6" t="n">
-        <v>74208.89673390945</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26829,7 +26831,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27027,16 +27029,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>33.41413998392116</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>33.41413998392116</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.48916920023249</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>207.6001488937379</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="O3" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
-        <v>129.1167504401228</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>207.6001488937379</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.6001488937379</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
-        <v>74.21564356216658</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L6" t="n">
-        <v>207.6001488937379</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>152.2285381082539</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,16 +35178,16 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>61.48916920023249</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>207.6001488937379</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.6001488937379</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35255,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>72.58846605173098</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>207.6001488937379</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O9" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,10 +35418,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>207.6001488937379</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>87.19451851350715</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35489,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M12" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>25.60474007003436</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35650,13 +35652,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>61.48916920023249</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>207.6001488937379</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.6001488937379</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L15" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>72.58846605173098</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35890,16 +35892,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>207.6001488937379</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.6001488937379</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>120.862051877041</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>207.6001488937379</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>152.228538108254</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36206,19 +36208,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>43.28534947792182</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36680,19 +36682,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>217.7067518141195</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37397,13 +37399,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>99.81127712997396</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37859,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
@@ -37868,13 +37870,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>169.9067907798016</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38023,10 +38025,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>207.6001488937379</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>87.19451851350715</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>207.6001488937379</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>95.70025371986186</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>438224.5760825101</v>
+        <v>333773.6848928015</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18548951.26311751</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5537643.65058984</v>
+        <v>5524608.224364797</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>47.13383555196372</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>47.13383555196372</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>26.16190956546853</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y5" t="n">
-        <v>102.3382270926889</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="6">
@@ -974,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>126.358590200387</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>9.336946277399601</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="7">
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1217,16 +1217,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>83.81476128364193</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>186.3732331246961</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1311,34 +1311,34 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="12">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1469,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1548,49 +1548,49 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C14" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D14" t="n">
-        <v>212.2853856434421</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>53.6747228092714</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>44.08176337665907</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1779,55 +1779,55 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1934,19 +1934,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>17.61720206839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>70.73885857389313</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,28 +2083,28 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>48.48515950437162</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>97.35820752796802</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2362,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>241.0142888776591</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>82.69355372315668</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,16 +2447,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>202.2946864288972</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2639,16 +2639,16 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>107.0564356555957</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2684,22 +2684,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2791,64 +2791,64 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>80.33470701582003</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2927,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>212.5001071018605</v>
       </c>
       <c r="X30" t="n">
-        <v>3.573781263631001</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3040,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>1.809496073036188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3073,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1.197928092376224</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3164,16 +3164,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>92.95466700954542</v>
+        <v>51.72215467797748</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -3407,13 +3407,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>104.7383832473596</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
     </row>
     <row r="37">
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,31 +3502,31 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,19 +3547,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3590,16 +3590,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>42.10822283109475</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3745,19 +3745,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E41" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>11.01727716149734</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="43">
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3979,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>241.0142888776591</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,19 +4021,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>58.39471844666277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>41.30402073131225</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.28100232079598</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C2" t="n">
-        <v>4.28100232079598</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D2" t="n">
-        <v>4.28100232079598</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E2" t="n">
-        <v>4.28100232079598</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F2" t="n">
-        <v>4.28100232079598</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G2" t="n">
-        <v>4.28100232079598</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>4.28100232079598</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>57.25840604064623</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M2" t="n">
-        <v>110.2358097604965</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
-        <v>163.2132134803467</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
-        <v>214.050116039799</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P2" t="n">
-        <v>214.050116039799</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>166.4401811388256</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>112.3871215328157</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>58.33406192680583</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>58.33406192680583</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>58.33406192680583</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>58.33406192680583</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X2" t="n">
-        <v>58.33406192680583</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.28100232079598</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.33406192680583</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>4.28100232079598</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>4.28100232079598</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>4.28100232079598</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N3" t="n">
-        <v>55.11790488024824</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O3" t="n">
-        <v>108.0953086000985</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
-        <v>214.050116039799</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>214.050116039799</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>166.4401811388256</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>166.4401811388256</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U3" t="n">
-        <v>166.4401811388256</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V3" t="n">
-        <v>166.4401811388256</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="W3" t="n">
-        <v>166.4401811388256</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X3" t="n">
-        <v>166.4401811388256</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
-        <v>112.3871215328157</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.8132928110667</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>138.8132928110667</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>138.8132928110667</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>138.8132928110667</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>138.8132928110667</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>138.8132928110667</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>84.76023320505688</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>30.70717359904702</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L4" t="n">
-        <v>31.59512732850896</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M4" t="n">
-        <v>70.78316552073113</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N4" t="n">
-        <v>114.4740161761674</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O4" t="n">
-        <v>138.8132928110667</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>138.8132928110667</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.8132928110667</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>138.8132928110667</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>138.8132928110667</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>138.8132928110667</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>138.8132928110667</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>138.8132928110667</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>138.8132928110667</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>138.8132928110667</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.8132928110667</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U5" t="n">
-        <v>122.6530896684844</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V5" t="n">
-        <v>122.6530896684844</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W5" t="n">
-        <v>122.6530896684844</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X5" t="n">
-        <v>122.6530896684844</v>
+        <v>396.792197863116</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>189.1984156022267</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>795.8418184905681</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="C6" t="n">
-        <v>795.8418184905681</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>74.24228005117135</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>25.87268642112264</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I7" t="n">
-        <v>113.583345248266</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543128</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W8" t="n">
-        <v>749.627473042513</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>548.4453565401495</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>548.4453565401495</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>463.7839815061678</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>304.5465265007123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>158.0119685275972</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X9" t="n">
-        <v>756.2056553051034</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y9" t="n">
-        <v>548.4453565401495</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.7299197543128</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>122.2961490211351</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>302.3720006057937</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M11" t="n">
-        <v>519.3476278686978</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>725.2021500759372</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>874.3971002185853</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X11" t="n">
-        <v>749.627473042513</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y11" t="n">
-        <v>506.1786963984129</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>49.38115216564972</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="C12" t="n">
-        <v>49.38115216564972</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="D12" t="n">
-        <v>49.38115216564972</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="E12" t="n">
-        <v>49.38115216564972</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>49.38115216564972</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>49.38115216564972</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>49.38115216564972</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>234.810827406191</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>473.4149733950735</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N12" t="n">
-        <v>712.019119383956</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U12" t="n">
-        <v>735.8335372470253</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V12" t="n">
-        <v>500.6814290152826</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="W12" t="n">
-        <v>257.2326523711826</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="X12" t="n">
-        <v>49.38115216564972</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="Y12" t="n">
-        <v>49.38115216564972</v>
+        <v>137.7041268545529</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L13" t="n">
-        <v>46.5952681179257</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M13" t="n">
-        <v>85.78330631014788</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N13" t="n">
-        <v>129.4741569655842</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>477.1596022224361</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C14" t="n">
-        <v>233.7108255783361</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>122.2961490211351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>302.3720006057937</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
-        <v>519.3476278686978</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>725.2021500759372</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>874.3971002185853</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>720.6083788665362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>720.6083788665362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X14" t="n">
-        <v>720.6083788665362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y14" t="n">
-        <v>720.6083788665362</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>193.7341723913397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>65.60123993063803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>65.60123993063803</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M15" t="n">
-        <v>304.2053859195205</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T15" t="n">
-        <v>689.4702815141908</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U15" t="n">
-        <v>689.4702815141908</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="V15" t="n">
-        <v>689.4702815141908</v>
+        <v>184.6567645751305</v>
       </c>
       <c r="W15" t="n">
-        <v>446.0215048700907</v>
+        <v>184.6567645751305</v>
       </c>
       <c r="X15" t="n">
-        <v>401.4944711562937</v>
+        <v>184.6567645751305</v>
       </c>
       <c r="Y15" t="n">
-        <v>193.7341723913397</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L16" t="n">
-        <v>46.5952681179257</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M16" t="n">
-        <v>85.78330631014788</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N16" t="n">
-        <v>129.4741569655842</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5542,25 +5542,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>366.1018663125844</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V17" t="n">
-        <v>366.1018663125844</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W17" t="n">
-        <v>366.1018663125844</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X17" t="n">
-        <v>366.1018663125844</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y17" t="n">
-        <v>122.6530896684844</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>380.2300195200815</v>
+        <v>90.73453560909468</v>
       </c>
       <c r="C18" t="n">
-        <v>380.2300195200815</v>
+        <v>90.73453560909468</v>
       </c>
       <c r="D18" t="n">
-        <v>380.2300195200815</v>
+        <v>90.73453560909468</v>
       </c>
       <c r="E18" t="n">
-        <v>380.2300195200815</v>
+        <v>90.73453560909468</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>90.73453560909468</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5600,19 +5600,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>178.8501590306595</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M18" t="n">
-        <v>417.4543050195419</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5624,22 +5624,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X18" t="n">
-        <v>756.2056553051034</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y18" t="n">
-        <v>548.4453565401495</v>
+        <v>90.73453560909468</v>
       </c>
     </row>
     <row r="19">
@@ -5694,22 +5694,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="21">
@@ -5840,43 +5840,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>813.9127174732475</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>813.9127174732475</v>
+        <v>865.715531745012</v>
       </c>
       <c r="U21" t="n">
-        <v>813.9127174732475</v>
+        <v>637.4919134814011</v>
       </c>
       <c r="V21" t="n">
-        <v>813.9127174732475</v>
+        <v>402.3398052496583</v>
       </c>
       <c r="W21" t="n">
-        <v>570.4639408291474</v>
+        <v>402.3398052496583</v>
       </c>
       <c r="X21" t="n">
-        <v>570.4639408291474</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="Y21" t="n">
-        <v>362.7036420641935</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="22">
@@ -5934,13 +5934,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
         <v>19.28114311021272</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T23" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>22.57944215788615</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>102.8099852548154</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W24" t="n">
-        <v>518.4217842253022</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X24" t="n">
-        <v>310.5702840197694</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y24" t="n">
-        <v>102.8099852548154</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
         <v>19.28114311021272</v>
@@ -6186,13 +6186,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>749.627473042513</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F26" t="n">
-        <v>506.1786963984129</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6256,22 +6256,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>582.8795121963512</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>582.8795121963512</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>433.9451025351</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>274.7076475296445</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>128.1730895565294</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
         <v>20.03527576299844</v>
@@ -6308,19 +6308,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>790.6398109613051</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V27" t="n">
-        <v>790.6398109613051</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W27" t="n">
-        <v>790.6398109613051</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X27" t="n">
-        <v>790.6398109613051</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y27" t="n">
-        <v>582.8795121963512</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G28" t="n">
         <v>19.28114311021272</v>
@@ -6408,28 +6408,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V29" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W29" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X29" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>341.0228630172405</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C30" t="n">
-        <v>166.5698337361135</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D30" t="n">
-        <v>166.5698337361135</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E30" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6575,19 +6575,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W30" t="n">
-        <v>720.6083788665362</v>
+        <v>521.1869644168632</v>
       </c>
       <c r="X30" t="n">
-        <v>716.9984988022625</v>
+        <v>521.1869644168632</v>
       </c>
       <c r="Y30" t="n">
-        <v>509.2382000373086</v>
+        <v>521.1869644168632</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C32" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D32" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E32" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F32" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G32" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>344.6327430815143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>21.24530413913604</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>21.24530413913604</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6812,19 +6812,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W33" t="n">
-        <v>720.6083788665362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>720.6083788665362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>512.8480801015824</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6891,13 +6891,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
         <v>19.28114311021272</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>812.6742080953335</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="C35" t="n">
-        <v>812.6742080953335</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="D35" t="n">
-        <v>812.6742080953335</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="E35" t="n">
-        <v>812.6742080953335</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="F35" t="n">
-        <v>718.7806050553886</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G35" t="n">
-        <v>475.3318284112885</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H35" t="n">
         <v>231.8830517671884</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U35" t="n">
-        <v>812.6742080953335</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V35" t="n">
-        <v>812.6742080953335</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W35" t="n">
-        <v>812.6742080953335</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X35" t="n">
-        <v>812.6742080953335</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y35" t="n">
-        <v>812.6742080953335</v>
+        <v>527.5764290961142</v>
       </c>
     </row>
     <row r="36">
@@ -7022,19 +7022,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7043,22 +7043,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>360.2295980564601</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V36" t="n">
-        <v>125.0774898247174</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W36" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y36" t="n">
         <v>19.28114311021272</v>
@@ -7131,7 +7131,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>481.7099827492369</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>481.7099827492369</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>481.7099827492369</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>322.4725277437814</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>175.9379697706663</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
         <v>20.03527576299844</v>
@@ -7262,13 +7262,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>689.4702815141908</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>689.4702815141908</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>689.4702815141908</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>481.7099827492369</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="40">
@@ -7359,10 +7359,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
         <v>19.28114311021272</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>495.259035872464</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C41" t="n">
-        <v>495.259035872464</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D41" t="n">
-        <v>495.259035872464</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543128</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J41" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>122.2961490211351</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>302.3720006057937</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>519.3476278686978</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759372</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185853</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>738.7078125165641</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
-        <v>738.7078125165641</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V41" t="n">
-        <v>738.7078125165641</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W41" t="n">
-        <v>495.259035872464</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X41" t="n">
-        <v>495.259035872464</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y41" t="n">
-        <v>495.259035872464</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J42" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>689.4702815141908</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>678.3417187247995</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>678.3417187247995</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V42" t="n">
-        <v>678.3417187247995</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W42" t="n">
-        <v>434.8929420806995</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X42" t="n">
-        <v>227.0414418751666</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>829.5248650203655</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>829.5248650203655</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>829.5248650203655</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>829.5248650203655</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>829.5248650203655</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>829.5248650203655</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>829.5248650203655</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>518.2486856454962</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C44" t="n">
-        <v>274.7999090013961</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D44" t="n">
-        <v>31.35113235729608</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>31.35113235729608</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>31.35113235729608</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>122.2961490211351</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L44" t="n">
-        <v>302.3720006057937</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M44" t="n">
-        <v>519.3476278686978</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N44" t="n">
-        <v>725.2021500759372</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O44" t="n">
-        <v>874.3971002185853</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>577.2332497330343</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U44" t="n">
-        <v>577.2332497330343</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="V44" t="n">
-        <v>577.2332497330343</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W44" t="n">
-        <v>577.2332497330343</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X44" t="n">
-        <v>577.2332497330343</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y44" t="n">
-        <v>518.2486856454962</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N45" t="n">
-        <v>726.4525409563269</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>780.3501446911901</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>780.3501446911901</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>578.163550049956</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>578.163550049956</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>370.5697677890668</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>162.9759855281775</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L46" t="n">
-        <v>46.5952681179257</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M46" t="n">
-        <v>85.78330631014788</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N46" t="n">
-        <v>129.4741569655842</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>289.278943979937</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M2" t="n">
-        <v>283.8587622372225</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065406</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>281.4486180473961</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>182.6921187090427</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O3" t="n">
-        <v>196.1087734543942</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8224,16 +8224,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8461,16 +8461,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>335.768472927719</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133072</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,13 +8695,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8774,19 +8774,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>356.2611315939937</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>269.2526134200356</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8929,16 +8929,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9008,19 +9008,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>184.6294155606472</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9248,7 +9248,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>299.7352039419416</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
@@ -9263,7 +9263,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,10 +9403,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9488,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9956,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10193,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,22 +10670,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10910,16 +10910,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N39" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11068,16 +11068,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11144,19 +11144,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>371.3463732493024</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11299,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>382.6009056104135</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22558,16 +22558,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22594,13 +22594,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>102.735282389186</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>155.5075405762956</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>169.5833205541816</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>332.7254096461039</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.0206546399176</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>119.195969978366</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>124.5493355518741</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>131.644910854424</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>152.1701667673546</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22722,13 +22722,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>108.7146434974898</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>101.9379459173085</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>67.19727055120424</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22786,7 +22786,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>194.2434736043149</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
-        <v>283.8997115633647</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="6">
@@ -22862,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>21.08647536425178</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>128.006570885811</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22913,16 +22913,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22931,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -22962,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -23007,7 +23007,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>385.7157455161685</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23065,13 +23065,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23083,10 +23083,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23105,16 +23105,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>63.63030428099682</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23153,22 +23153,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>46.42735402472914</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23199,7 +23199,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23226,7 +23226,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>210.9009519055692</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23345,7 +23345,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>37.59500814890536</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23357,10 +23357,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>60.3442152127903</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23436,7 +23436,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C14" t="n">
-        <v>124.2586028933485</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D14" t="n">
-        <v>142.3976559772408</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>200.9102526910243</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23554,7 +23554,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>179.1258643401539</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>161.6912218268184</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
         <v>162.2271725074396</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23746,16 +23746,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>120.0869518323295</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23822,19 +23822,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>127.4520103249939</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>66.60465858931751</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23864,19 +23864,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23946,13 +23946,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23983,16 +23983,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24022,10 +24022,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>61.00025583355162</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>123.1980115994662</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>102.8065211668536</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24183,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>379.4685256062839</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24220,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,13 +24250,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24265,13 +24265,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>145.2236497783945</v>
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>90.01494526515906</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,16 +24335,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>122.3720671615425</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>140.004192713242</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24387,7 +24387,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
         <v>22.26949182588285</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24457,10 +24457,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>195.0896117727101</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24496,13 +24496,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24527,16 +24527,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>30.28708150761494</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24572,22 +24572,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H28" t="n">
         <v>162.2271725074396</v>
@@ -24648,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24724,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24767,10 +24767,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24815,19 +24815,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>39.19487605905914</v>
       </c>
       <c r="X30" t="n">
-        <v>202.1992039398465</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24897,7 +24897,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24928,16 +24928,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>413.4932414420988</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24961,13 +24961,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24979,10 +24979,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24995,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>143.8712843010076</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25052,16 +25052,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25165,13 +25165,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>313.921378732166</v>
+        <v>355.153891063734</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25201,13 +25201,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25283,7 +25283,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25295,13 +25295,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>146.95659991356</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>170.2754303037659</v>
       </c>
     </row>
     <row r="37">
@@ -25371,10 +25371,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25405,16 +25405,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>137.4807660112426</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25478,16 +25478,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>95.23529433211588</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25599,13 +25599,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25633,19 +25633,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E41" t="n">
-        <v>151.7265451152921</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25681,16 +25681,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>189.1474515333243</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>70.67486577968219</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -25839,13 +25839,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25867,16 +25867,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>173.6629242394455</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>327.8432202093908</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25955,7 +25955,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>58.85381342133088</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26040,7 +26040,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>359246.6205466193</v>
+        <v>465436.0575800949</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490233.5289125026</v>
+        <v>465436.0575800949</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490233.5289125026</v>
+        <v>465436.057580095</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490233.5289125026</v>
+        <v>465436.057580095</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490233.5289125026</v>
+        <v>465436.0575800949</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125027</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125027</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125027</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490233.5289125026</v>
+        <v>465436.0575800949</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490233.5289125026</v>
+        <v>465436.0575800949</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73064.16355197683</v>
+        <v>94654.585100959</v>
       </c>
       <c r="C2" t="n">
-        <v>99696.40351879936</v>
+        <v>94654.58510095898</v>
       </c>
       <c r="D2" t="n">
+        <v>94654.58510095897</v>
+      </c>
+      <c r="E2" t="n">
+        <v>94654.58510095898</v>
+      </c>
+      <c r="F2" t="n">
+        <v>94654.58510095898</v>
+      </c>
+      <c r="G2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="E2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>99696.4035187994</v>
       </c>
-      <c r="G2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="H2" t="n">
-        <v>99696.40351879937</v>
-      </c>
       <c r="I2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="J2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="K2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="L2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="M2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="N2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="O2" t="n">
-        <v>99696.40351879937</v>
+        <v>94654.58510095897</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.40351879939</v>
+        <v>94654.58510095897</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940139</v>
+        <v>68873.75658168984</v>
       </c>
       <c r="C3" t="n">
-        <v>60576.32218666811</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>9729.042974167098</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14001.23214027929</v>
+        <v>53772.51089020943</v>
       </c>
       <c r="K3" t="n">
-        <v>48256.95293363261</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6146.830964860551</v>
+        <v>8092.707817725995</v>
       </c>
       <c r="C4" t="n">
-        <v>8547.111069342402</v>
+        <v>8092.707817725994</v>
       </c>
       <c r="D4" t="n">
-        <v>8547.111069342402</v>
+        <v>8092.707817725994</v>
       </c>
       <c r="E4" t="n">
-        <v>8547.111069342402</v>
+        <v>8092.707817725995</v>
       </c>
       <c r="F4" t="n">
-        <v>8547.111069342402</v>
+        <v>8092.707817725995</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
@@ -26456,10 +26456,10 @@
         <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>8547.111069342402</v>
+        <v>8092.707817725995</v>
       </c>
       <c r="P4" t="n">
-        <v>8547.111069342402</v>
+        <v>8092.707817725994</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36881.16176380494</v>
+        <v>46123.08494184745</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>46123.08494184745</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>46123.08494184745</v>
       </c>
       <c r="E5" t="n">
-        <v>14653.66876376167</v>
+        <v>12495.48494184745</v>
       </c>
       <c r="F5" t="n">
-        <v>14653.66876376167</v>
+        <v>12495.48494184745</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26508,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14653.66876376167</v>
+        <v>12495.48494184745</v>
       </c>
       <c r="P5" t="n">
-        <v>14653.66876376167</v>
+        <v>12495.48494184745</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12102.89156390995</v>
+        <v>-41073.12639516479</v>
       </c>
       <c r="C6" t="n">
-        <v>-17708.29850097283</v>
+        <v>27800.63018652504</v>
       </c>
       <c r="D6" t="n">
-        <v>42868.02368569532</v>
+        <v>27800.63018652502</v>
       </c>
       <c r="E6" t="n">
-        <v>76495.62368569532</v>
+        <v>61428.23018652503</v>
       </c>
       <c r="F6" t="n">
-        <v>76495.62368569533</v>
+        <v>61428.23018652503</v>
       </c>
       <c r="G6" t="n">
-        <v>76495.62368569533</v>
+        <v>54548.57009148776</v>
       </c>
       <c r="H6" t="n">
-        <v>76495.6236856953</v>
+        <v>64277.61306565487</v>
       </c>
       <c r="I6" t="n">
-        <v>76495.6236856953</v>
+        <v>64277.61306565488</v>
       </c>
       <c r="J6" t="n">
-        <v>62494.391545416</v>
+        <v>10505.10217544545</v>
       </c>
       <c r="K6" t="n">
-        <v>28238.6707520627</v>
+        <v>64277.61306565483</v>
       </c>
       <c r="L6" t="n">
-        <v>76495.62368569532</v>
+        <v>64277.61306565483</v>
       </c>
       <c r="M6" t="n">
-        <v>76495.62368569529</v>
+        <v>64277.61306565483</v>
       </c>
       <c r="N6" t="n">
-        <v>76495.62368569529</v>
+        <v>64277.61306565488</v>
       </c>
       <c r="O6" t="n">
-        <v>76495.6236856953</v>
+        <v>61428.23018652502</v>
       </c>
       <c r="P6" t="n">
-        <v>76495.62368569532</v>
+        <v>61428.23018652502</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -26828,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
   </sheetData>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5017598677093</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>35.49644443937865</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5017598677093</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5017598677093</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>35.49644443937865</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>53.51252900994975</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M2" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>51.35040662570938</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>51.35040662570935</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>53.51252900994975</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,16 +34944,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,16 +35181,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410587</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>99.8112771299739</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,13 +35415,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153933</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35494,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>217.7067518141195</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>127.1185794980173</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35649,16 +35649,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35968,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>161.1808241620674</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37788,16 +37788,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655597</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153932</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>240.0046611659691</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655598</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>207.9338608153932</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>240.0046611659691</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
